--- a/translate/Plant.xlsx
+++ b/translate/Plant.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B226"/>
+  <dimension ref="A1:B232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>肋球藻属</t>
+          <t>眼蝶属</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>海球藻属</t>
+          <t>螟蛾属</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>单针藻属</t>
+          <t>鲎属</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>蒂罗花属</t>
+          <t>切叶蚁属</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>立碗藓属</t>
+          <t>蜜蜂属</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>四链藻属</t>
+          <t>实蝇属</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>铁筷子属</t>
+          <t>斑螟属</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>橡胶树属（三叶橡胶属）</t>
+          <t>橡胶树属</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>微单胞藻属</t>
+          <t>托普蚊属</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>天南星属</t>
+          <t>木虱属</t>
         </is>
       </c>
     </row>
@@ -1372,1764 +1372,1836 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Volvox</t>
+          <t>Henckelia</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>团藻属</t>
+          <t>果蝇属</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Henckelia</t>
+          <t>Pinus</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>汉克苣苔属</t>
+          <t>松属</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Asparagus</t>
+          <t>Micractinium</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>天门冬属</t>
+          <t>微芒藻属</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Macadamia</t>
+          <t>Ziziphus</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>澳洲坚果属</t>
+          <t>枣属</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Oryza</t>
+          <t>Nicotiana</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>稻属</t>
+          <t>烟草属</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Typha</t>
+          <t>Abrus</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>香蒲属</t>
+          <t>相思子属</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Santalum</t>
+          <t>Carica</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>檀香属</t>
+          <t>番木瓜属</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Phoenix</t>
+          <t>Bracteacoccus</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>海枣属</t>
+          <t>苞球藻属</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Prunus</t>
+          <t>Araucaria</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>李属</t>
+          <t>南洋杉属</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Pectinodesmus</t>
+          <t>Orthotrichum</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>果胶藻属</t>
+          <t>木灵藓属</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Betula</t>
+          <t>Asparagus</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>桦木属</t>
+          <t>天门冬属</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Tarenaya</t>
+          <t>Citrus</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>塔日娜属</t>
+          <t>柑橘属</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Phalaenopsis</t>
+          <t>Lupinus</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>蝴蝶兰属</t>
+          <t>羽扇豆属</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Morus</t>
+          <t>Typha</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>桑属</t>
+          <t>香蒲属</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Punica</t>
+          <t>Pyramimonas</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>石榴属</t>
+          <t>塔胞藻属</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Desmodesmus</t>
+          <t>Ulva</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>德氏藻属</t>
+          <t>石莼属</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Cinnamomum</t>
+          <t>Nephroselmis</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>樟属</t>
+          <t>肾形藻属</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Abrus</t>
+          <t>Closterium</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>相思子属</t>
+          <t>新月藻属</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Rhodamnia</t>
+          <t>Tarenaya</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>红淡比属</t>
+          <t>塔日娜属</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Cymbopogon</t>
+          <t>Morus</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>香茅属</t>
+          <t>桑属</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Carica</t>
+          <t>Desmodesmus</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>番木瓜属</t>
+          <t>盘星藻属</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Hamamelis</t>
+          <t>Cosmarium</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>金缕梅属</t>
+          <t>鼓藻属</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Indocalamus</t>
+          <t>Phylloglossum</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>箬竹属</t>
+          <t>舌叶蕨属</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Castanopsis</t>
+          <t>Elaeis</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>锥栗属</t>
+          <t>油棕属</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Lotus</t>
+          <t>Impatiens</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>莲属</t>
+          <t>凤仙花属</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Setaria</t>
+          <t>Asplenium</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>狗尾草属</t>
+          <t>铁角蕨属</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sorghum</t>
+          <t>Streptofilum</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>高粱属</t>
+          <t>链丝藻属</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Chimonocalamus</t>
+          <t>Cymbomonas</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>方竹属</t>
+          <t>杯状藻属</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Zostera</t>
+          <t>Sykidion</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>大叶藻属</t>
+          <t>叉丝藻属</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Potamogeton</t>
+          <t>Volvox</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>眼子菜属</t>
+          <t>团藻属</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Coelastrum</t>
+          <t>Macadamia</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>空球藻属</t>
+          <t>澳洲坚果属</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Araucaria</t>
+          <t>Oryza</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>南洋杉属</t>
+          <t>稻属</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Orthotrichum</t>
+          <t>Santalum</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>木灵藓属</t>
+          <t>檀香属</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Interfilum</t>
+          <t>Phoenix</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>间丝藻属</t>
+          <t>海枣属</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Rutidosis</t>
+          <t>Prunus</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>断节莎属</t>
+          <t>李属</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Gastrolobium</t>
+          <t>Pectinodesmus</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>胃豆属</t>
+          <t>果胶藻属</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Beta</t>
+          <t>Betula</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>甜菜属</t>
+          <t>桦木属</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Hibiscus</t>
+          <t>Phalaenopsis</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>木槿属</t>
+          <t>蝴蝶兰属</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Lycium</t>
+          <t>Punica</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>枸杞属</t>
+          <t>石榴属</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Andrographis</t>
+          <t>Cinnamomum</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>穿心莲属</t>
+          <t>樟属</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Dioscorea</t>
+          <t>Rhodamnia</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>薯蓣属</t>
+          <t>红淡比属</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Lupinus</t>
+          <t>Cymbopogon</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>羽扇豆属</t>
+          <t>香茅属</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Chenopodium</t>
+          <t>Hamamelis</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>藜属</t>
+          <t>金缕梅属</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Barbella</t>
+          <t>Indocalamus</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>鞭枝藓属</t>
+          <t>箬竹属</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Ziziphus</t>
+          <t>Castanopsis</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>枣属</t>
+          <t>锥属</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Crassula</t>
+          <t>Lotus</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>青锁龙属</t>
+          <t>莲属</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Cycas</t>
+          <t>Setaria</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>苏铁属</t>
+          <t>狗尾草属</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Nicotiana</t>
+          <t>Sorghum</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>烟草属</t>
+          <t>高粱属</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Koliella</t>
+          <t>Chimonocalamus</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>柯氏藻属</t>
+          <t>方竹属</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Pinus</t>
+          <t>Zostera</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>松属</t>
+          <t>大叶藻属</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Marvania</t>
+          <t>Potamogeton</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>马万尼亚藻属</t>
+          <t>眼子菜属</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Herrania</t>
+          <t>Coelastrum</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>赫伦尼亚可可属</t>
+          <t>空球藻属</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Coelastrella</t>
+          <t>Interfilum</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>集星藻属</t>
+          <t>间丝藻属</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Nephroselmis</t>
+          <t>Rutidosis</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>肾形藻属</t>
+          <t>断节莎属</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Actinidia</t>
+          <t>Gastrolobium</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>猕猴桃属</t>
+          <t>胃豆属</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Watanabea</t>
+          <t>Beta</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>渡边藻属</t>
+          <t>甜菜属</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Isachne</t>
+          <t>Hibiscus</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>柳叶箬属</t>
+          <t>木槿属</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Closterium</t>
+          <t>Lycium</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>新月藻属</t>
+          <t>枸杞属</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Primulina</t>
+          <t>Andrographis</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>报春苣苔属</t>
+          <t>穿心莲属</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Pseudopediastrum</t>
+          <t>Dioscorea</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>拟盘星藻属</t>
+          <t>薯蓣属</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Micractinium</t>
+          <t>Chenopodium</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>微芒藻属</t>
+          <t>藜属</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Benincasa</t>
+          <t>Barbella</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>冬瓜属</t>
+          <t>鞭枝藓属</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Tillandsia</t>
+          <t>Crassula</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>铁兰属</t>
+          <t>青锁龙属</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Helianthus</t>
+          <t>Cycas</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>向日葵属</t>
+          <t>苏铁属</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Allium</t>
+          <t>Koliella</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>葱属</t>
+          <t>柯氏藻属</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Hyparrhenia</t>
+          <t>Marvania</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>苞茅属</t>
+          <t>马万尼亚藻属</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Eutrema</t>
+          <t>Herrania</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>山嵛菜属</t>
+          <t>赫伦尼亚可可属</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Citrus</t>
+          <t>Coelastrella</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>柑橘属</t>
+          <t>集星藻属</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Rhododendron</t>
+          <t>Actinidia</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>杜鹃花属</t>
+          <t>猕猴桃属</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Dicranum</t>
+          <t>Watanabea</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>曲尾藓属</t>
+          <t>渡边藻属</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Malus</t>
+          <t>Isachne</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>苹果属</t>
+          <t>柳叶箬属</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Apium</t>
+          <t>Primulina</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>芹属</t>
+          <t>报春苣苔属</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Arabidopsis</t>
+          <t>Pseudopediastrum</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>拟南芥属</t>
+          <t>拟盘星藻属</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Raphanus</t>
+          <t>Benincasa</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>萝卜属</t>
+          <t>冬瓜属</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Cicer</t>
+          <t>Tillandsia</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>鹰嘴豆属</t>
+          <t>铁兰属</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Aesculus</t>
+          <t>Helianthus</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>七叶树属</t>
+          <t>向日葵属</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Cosmarium</t>
+          <t>Allium</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>鼓藻属</t>
+          <t>葱属</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Prosopis</t>
+          <t>Hyparrhenia</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>牧豆树属</t>
+          <t>苞茅属</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Vicia</t>
+          <t>Eutrema</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>野豌豆属</t>
+          <t>山嵛菜属</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Carya</t>
+          <t>Rhododendron</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>山核桃属</t>
+          <t>杜鹃属</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Phylloglossum</t>
+          <t>Dicranum</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>叶舌蕨属</t>
+          <t>曲尾藓属</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Daucus</t>
+          <t>Malus</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>胡萝卜属</t>
+          <t>苹果属</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Hoya</t>
+          <t>Apium</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>球兰属</t>
+          <t>芹属</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Ricinus</t>
+          <t>Arabidopsis</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>蓖麻属</t>
+          <t>拟南芥属</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Gossypium</t>
+          <t>Raphanus</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>棉属</t>
+          <t>萝卜属</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Neltuma</t>
+          <t>Cicer</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>牧豆树属</t>
+          <t>鹰嘴豆属</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Fragaria</t>
+          <t>Aesculus</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>草莓属</t>
+          <t>七叶树属</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Serissa</t>
+          <t>Prosopis</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>六月雪属</t>
+          <t>牧豆树属</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Malania</t>
+          <t>Vicia</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>蒜头果属</t>
+          <t>野豌豆属</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Cyperus</t>
+          <t>Carya</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>莎草属</t>
+          <t>山核桃属</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Hydrocytium</t>
+          <t>Daucus</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>水囊花属</t>
+          <t>胡萝卜属</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Impatiens</t>
+          <t>Hoya</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>凤仙花属</t>
+          <t>球兰属</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Indigofera</t>
+          <t>Ricinus</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>槐蓝属（木蓝属）</t>
+          <t>蓖麻属</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Wallichia</t>
+          <t>Gossypium</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>瓦理棕属</t>
+          <t>棉属</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Licuala</t>
+          <t>Neltuma</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>轴榈属</t>
+          <t>牧豆树属</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Asplenium</t>
+          <t>Fragaria</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>铁角蕨属</t>
+          <t>草莓属</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Tetrataxis</t>
+          <t>Serissa</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>四列木属</t>
+          <t>六月雪属</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Tanaecium</t>
+          <t>Malania</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>藤钟花属</t>
+          <t>蒜头果属</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Streptofilum</t>
+          <t>Cyperus</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>链丝藻属</t>
+          <t>莎草属</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Pediastrum</t>
+          <t>Hydrocytium</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>盘星藻属</t>
+          <t>水囊花属</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Cymbomonas</t>
+          <t>Indigofera</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>波曲藻属</t>
+          <t>槐蓝属（木蓝属）</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Mesostigma</t>
+          <t>Wallichia</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>中带藻属</t>
+          <t>瓦理棕属</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Oltmannsiellopsis</t>
+          <t>Licuala</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>奥氏藻属</t>
+          <t>轴榈属</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Chaetosphaeridium</t>
+          <t>Tetrataxis</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>毛球藻属</t>
+          <t>四列木属</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Sarcinofilum</t>
+          <t>Tanaecium</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>肉丝藻属</t>
+          <t>藤钟花属</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Characiochloris</t>
+          <t>Pediastrum</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>绿星球藻属</t>
+          <t>盘星藻属</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Ephedra</t>
+          <t>Mesostigma</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>麻黄属</t>
+          <t>中带藻属</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Ulota</t>
+          <t>Oltmannsiellopsis</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>木灵藓属</t>
+          <t>奥氏藻属</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Lacunastrum</t>
+          <t>Chaetosphaeridium</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>腔星藻属</t>
+          <t>毛球藻属</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Jenufa</t>
+          <t>Sarcinofilum</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>珍妃藻属</t>
+          <t>肉丝藻属</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Treubaria</t>
+          <t>Characiochloris</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>葡萄藻属</t>
+          <t>绿星球藻属</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Isoetes</t>
+          <t>Ephedra</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>水韭属</t>
+          <t>麻黄属</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Lemna</t>
+          <t>Ulota</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>浮萍属</t>
+          <t>木灵藓属</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Edaphochlorella</t>
+          <t>Lacunastrum</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>生地小球藻属</t>
+          <t>腔星藻属</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Eriocaulon</t>
+          <t>Jenufa</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>谷精草属</t>
+          <t>珍妃藻属</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Magnolia</t>
+          <t>Treubaria</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>木兰属</t>
+          <t>葡萄藻属</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Tetraselmis</t>
+          <t>Isoetes</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>四片藻属 / 四鞭藻属</t>
+          <t>水韭属</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Syzygium</t>
+          <t>Lobosphaera</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>蒲桃属</t>
+          <t>骚扰蚊属</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Ulva</t>
+          <t>Binuclearia</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>石莼属</t>
+          <t>大鳞螺属</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Eragrostis</t>
+          <t>Callicarpa</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>画眉草属</t>
+          <t>地花蜂属</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Elaeis</t>
+          <t>Tetraselmis</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>油棕属</t>
+          <t>安妮西珊瑚属</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Parachlorella</t>
+          <t>Lemna</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>副小球藻属</t>
+          <t>浮萍属</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Pedinomonas</t>
+          <t>Edaphochlorella</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>锥囊藻属</t>
+          <t>生地小球藻属</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sykidion</t>
+          <t>Eriocaulon</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>联星藻属</t>
+          <t>谷精草属</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Ctenolophon</t>
+          <t>Magnolia</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>梳状叶树属</t>
+          <t>木兰属</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Jaagichlorella</t>
+          <t>Syzygium</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>亚吉小球藻属</t>
+          <t>蒲桃属</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Botryococcus</t>
+          <t>Eragrostis</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>葡萄藻属</t>
+          <t>画眉草属</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Theobroma</t>
+          <t>Parachlorella</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>可可树属</t>
+          <t>副小球藻属</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Catopsis</t>
+          <t>Pedinomonas</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>卡托凤梨属</t>
+          <t>锥囊藻属</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Polygonatum</t>
+          <t>Ctenolophon</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>黄精属</t>
+          <t>梳状叶树属</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Butomus</t>
+          <t>Jaagichlorella</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>花蔺属</t>
+          <t>亚吉小球藻属</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Jatropha</t>
+          <t>Botryococcus</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>麻疯树属</t>
+          <t>葡萄藻属</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Alisma</t>
+          <t>Theobroma</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>泽泻属</t>
+          <t>可可树属</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Carex</t>
+          <t>Catopsis</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>薹草属</t>
+          <t>卡托凤梨属</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Ochroma</t>
+          <t>Polygonatum</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>轻木属</t>
+          <t>黄精属</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Copernicia</t>
+          <t>Butomus</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>考珀茨棕属</t>
+          <t>花蔺属</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Gladiolus</t>
+          <t>Jatropha</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>唐菖蒲属</t>
+          <t>麻疯树属</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Campeiostachys</t>
+          <t>Alisma</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>仲彬草属</t>
+          <t>泽泻属</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Pitcairnia</t>
+          <t>Carex</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>艳红凤梨属</t>
+          <t>薹草属</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Aria</t>
+          <t>Ochroma</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>白花楸属</t>
+          <t>轻木属</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Brachypodium</t>
+          <t>Copernicia</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>短柄草属</t>
+          <t>考珀茨棕属</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Rosa</t>
+          <t>Gladiolus</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>蔷薇属</t>
+          <t>唐菖蒲属</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Trollius</t>
+          <t>Campeiostachys</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>金莲花属</t>
+          <t>仲彬草属</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Cymodocea</t>
+          <t>Pitcairnia</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>丝粉藻属</t>
+          <t>艳红凤梨属</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Corylus</t>
+          <t>Aria</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>榛属</t>
+          <t>白花楸属</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Stuckenia</t>
+          <t>Brachypodium</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>篦齿眼子菜属</t>
+          <t>短柄草属</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
+          <t>Rosa</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>蔷薇属</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Trollius</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>金莲花属</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Cymodocea</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>丝粉藻属</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Corylus</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>榛属</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Stuckenia</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>篦齿眼子菜属</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
           <t>Pandanus</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B231" t="inlineStr">
         <is>
           <t>露兜树属</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Megathyrsus</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>大黍属</t>
         </is>
       </c>
     </row>
